--- a/main/ig/observations-summary.xlsx
+++ b/main/ig/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,198 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>fr-observation-administration-blood-derivatives-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Administration Blood Derivatives Document</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#MED-147</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>fr-observation-antenatal-testing-surveillance-battery-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Antenatal Testing And Surveillance Battery Document</t>
+  </si>
+  <si>
+    <t>LOINC#XX-ANTENATALTESTINGBATTERY</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>fr-observation-birth-event-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Birth Event Document</t>
+  </si>
+  <si>
+    <t>null#118215003</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>fr-observation-blood-product-transfusion-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Blood Product Transfusion Document</t>
+  </si>
+  <si>
+    <t>null#MED-145</t>
+  </si>
+  <si>
+    <t>fr-observation-contra-indications-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Contra Indications Document</t>
+  </si>
+  <si>
+    <t>null#64100-1</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>fr-observation-medical-summary-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Medical Summary Document</t>
+  </si>
+  <si>
+    <t>null#MED-142</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>fr-observation-microorganism-detection-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Microorganism Detection Document</t>
+  </si>
+  <si>
+    <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#MED-309</t>
+  </si>
+  <si>
+    <t>fr-observation-pain-score-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Pain Score Document</t>
+  </si>
+  <si>
+    <t>null#38208-5</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>fr-observation-pregnancy-history-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Pregnancy History Document</t>
+  </si>
+  <si>
+    <t>null#118185001</t>
+  </si>
+  <si>
+    <t>fr-observation-radiation-exposure-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Radiation Exposure Document</t>
+  </si>
+  <si>
+    <t>LOINC#73569-6</t>
+  </si>
+  <si>
+    <t>fr-observation-social-history-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Social History Document</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-social-history-code-cisis (required)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>fr-observation-survey-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Survey Document</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/document/core/ValueSet/fr-vs-evaluation-type (extensible)</t>
+  </si>
+  <si>
+    <t>fr-observation-transfusion-accidents-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Transfusion Accidents Document</t>
+  </si>
+  <si>
+    <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#MED-146</t>
+  </si>
+  <si>
+    <t>fr-observation-vital-signs-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Vital Signs Document</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-signe-vital-cisis (required)</t>
+  </si>
+  <si>
+    <t>fr-Observation-vital-signs-panel-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Vital Signs Panel Document</t>
+  </si>
+  <si>
+    <t>null#85353-1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
+  </si>
+  <si>
+    <t>fr-observation-work-related-accident-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Work Related Accident Document</t>
+  </si>
+  <si>
+    <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#GEN-180</t>
   </si>
 </sst>
 </file>
@@ -178,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +411,636 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
